--- a/Code/Results/Cases/Case_3_244/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_244/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.69917651855917</v>
+        <v>1.083535801138282</v>
       </c>
       <c r="C2">
-        <v>0.6673355385471211</v>
+        <v>0.2991360873785709</v>
       </c>
       <c r="D2">
-        <v>0.02852982788260405</v>
+        <v>0.02766834803760077</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8110501554072016</v>
+        <v>0.9256811883042673</v>
       </c>
       <c r="G2">
-        <v>0.7307446946777247</v>
+        <v>0.7780272031377962</v>
       </c>
       <c r="H2">
-        <v>0.4725905258347325</v>
+        <v>0.8312015576536709</v>
       </c>
       <c r="I2">
-        <v>0.415681488514636</v>
+        <v>0.7994050612249666</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1756924848073567</v>
+        <v>0.27140343584108</v>
       </c>
       <c r="M2">
-        <v>0.4415318878456134</v>
+        <v>0.2517476747808516</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.341930446912215</v>
+        <v>0.9786524220576212</v>
       </c>
       <c r="C3">
-        <v>0.5959285272965076</v>
+        <v>0.2757984692949265</v>
       </c>
       <c r="D3">
-        <v>0.02761876907374372</v>
+        <v>0.02728259605396843</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7440317265231471</v>
+        <v>0.9180137608706929</v>
       </c>
       <c r="G3">
-        <v>0.6699320859894584</v>
+        <v>0.7713470043885309</v>
       </c>
       <c r="H3">
-        <v>0.4529625403637567</v>
+        <v>0.8339881759197567</v>
       </c>
       <c r="I3">
-        <v>0.412052166709401</v>
+        <v>0.8070507183222588</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1632726021278046</v>
+        <v>0.2700854042169496</v>
       </c>
       <c r="M3">
-        <v>0.38433859316698</v>
+        <v>0.2361886505213775</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.123583754801302</v>
+        <v>0.9143940898700862</v>
       </c>
       <c r="C4">
-        <v>0.5521551302605872</v>
+        <v>0.2613585856882992</v>
       </c>
       <c r="D4">
-        <v>0.02707112033098724</v>
+        <v>0.02704863232600374</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7049755788093393</v>
+        <v>0.9140676193005959</v>
       </c>
       <c r="G4">
-        <v>0.6347625333348645</v>
+        <v>0.7679697337431008</v>
       </c>
       <c r="H4">
-        <v>0.442144463471962</v>
+        <v>0.8362446933044367</v>
       </c>
       <c r="I4">
-        <v>0.4112380998194389</v>
+        <v>0.8123402092025742</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1559295312821476</v>
+        <v>0.2694203457237094</v>
       </c>
       <c r="M4">
-        <v>0.3494979722194742</v>
+        <v>0.22672315716882</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.034805922588419</v>
+        <v>0.8882446368543242</v>
       </c>
       <c r="C5">
-        <v>0.5343245655423914</v>
+        <v>0.2554465471264109</v>
       </c>
       <c r="D5">
-        <v>0.02685066926342117</v>
+        <v>0.02695402986009654</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.689546840862981</v>
+        <v>0.9126504674355758</v>
       </c>
       <c r="G5">
-        <v>0.6209343884850824</v>
+        <v>0.7667748563823267</v>
       </c>
       <c r="H5">
-        <v>0.4380269943235078</v>
+        <v>0.8373011880083538</v>
       </c>
       <c r="I5">
-        <v>0.4112416819934168</v>
+        <v>0.8146449868697125</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1530037607861274</v>
+        <v>0.2691856033814801</v>
       </c>
       <c r="M5">
-        <v>0.3353598162867044</v>
+        <v>0.2228881035842889</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.020075067188202</v>
+        <v>0.8839047651313194</v>
       </c>
       <c r="C6">
-        <v>0.5313639756665225</v>
+        <v>0.2544631899856995</v>
       </c>
       <c r="D6">
-        <v>0.02681422151842483</v>
+        <v>0.02693836625592638</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6870132144954511</v>
+        <v>0.9124266647596428</v>
       </c>
       <c r="G6">
-        <v>0.6186674858402341</v>
+        <v>0.7665873807962953</v>
       </c>
       <c r="H6">
-        <v>0.437360327556874</v>
+        <v>0.8374848825872476</v>
       </c>
       <c r="I6">
-        <v>0.4112619584074366</v>
+        <v>0.8150366983545716</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1525218337703151</v>
+        <v>0.2691488157739457</v>
       </c>
       <c r="M6">
-        <v>0.3330155169160989</v>
+        <v>0.2222526413234505</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.122385721588898</v>
+        <v>0.9140412807092844</v>
       </c>
       <c r="C7">
-        <v>0.5519146439959854</v>
+        <v>0.2612789657387964</v>
       </c>
       <c r="D7">
-        <v>0.02706813652531537</v>
+        <v>0.02704735347248644</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7047655801408226</v>
+        <v>0.9140477348147797</v>
       </c>
       <c r="G7">
-        <v>0.6345740559406892</v>
+        <v>0.7679528857981666</v>
       </c>
       <c r="H7">
-        <v>0.4420877801682366</v>
+        <v>0.836258387384234</v>
       </c>
       <c r="I7">
-        <v>0.4112368163907227</v>
+        <v>0.8123706883411437</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1558898094695351</v>
+        <v>0.2694170330193089</v>
       </c>
       <c r="M7">
-        <v>0.3493070709323334</v>
+        <v>0.22667134618424</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.575757046741501</v>
+        <v>1.047343423019413</v>
       </c>
       <c r="C8">
-        <v>0.6426932148011417</v>
+        <v>0.2911122708147218</v>
       </c>
       <c r="D8">
-        <v>0.02821310796752385</v>
+        <v>0.0275347486047508</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7874831670985714</v>
+        <v>0.9228790043205919</v>
       </c>
       <c r="G8">
-        <v>0.7093001715008</v>
+        <v>0.7755730553871132</v>
       </c>
       <c r="H8">
-        <v>0.4655548146637472</v>
+        <v>0.8320490199914872</v>
       </c>
       <c r="I8">
-        <v>0.4141239176763065</v>
+        <v>0.8019175710568689</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1713486070355827</v>
+        <v>0.2709190504914645</v>
       </c>
       <c r="M8">
-        <v>0.4217481744210616</v>
+        <v>0.2463647708374879</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.475373734725679</v>
+        <v>1.309832892266229</v>
       </c>
       <c r="C9">
-        <v>0.8217877127110285</v>
+        <v>0.3487363214255481</v>
       </c>
       <c r="D9">
-        <v>0.03056372929798457</v>
+        <v>0.02851295455731062</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.968221913173025</v>
+        <v>0.9462701819887229</v>
       </c>
       <c r="G9">
-        <v>0.875088204286385</v>
+        <v>0.7963005787861306</v>
       </c>
       <c r="H9">
-        <v>0.5222959268622418</v>
+        <v>0.8281341804122349</v>
       </c>
       <c r="I9">
-        <v>0.4319927107144466</v>
+        <v>0.7861566395756441</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2041269833108288</v>
+        <v>0.2750089300318379</v>
       </c>
       <c r="M9">
-        <v>0.5664809712000505</v>
+        <v>0.2856767554272679</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.146743542920206</v>
+        <v>1.503325126266816</v>
       </c>
       <c r="C10">
-        <v>0.9548237895369027</v>
+        <v>0.3905379559373898</v>
       </c>
       <c r="D10">
-        <v>0.03237454737654133</v>
+        <v>0.02924474478306038</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.115208902998774</v>
+        <v>0.9672020984542939</v>
       </c>
       <c r="G10">
-        <v>1.011706118439037</v>
+        <v>0.815108948342413</v>
       </c>
       <c r="H10">
-        <v>0.5719333241472526</v>
+        <v>0.8279203378458959</v>
       </c>
       <c r="I10">
-        <v>0.4540467083899529</v>
+        <v>0.7774881875287676</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2300433577600529</v>
+        <v>0.2787124026937846</v>
       </c>
       <c r="M10">
-        <v>0.6751878574336132</v>
+        <v>0.3149805340152767</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.455416745979051</v>
+        <v>1.591486373694579</v>
       </c>
       <c r="C11">
-        <v>1.015860588978398</v>
+        <v>0.4094390246575585</v>
       </c>
       <c r="D11">
-        <v>0.03322170762138654</v>
+        <v>0.02958039232466092</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.185874018044316</v>
+        <v>0.9775477623253579</v>
       </c>
       <c r="G11">
-        <v>1.077831844734163</v>
+        <v>0.8244543765600696</v>
       </c>
       <c r="H11">
-        <v>0.5965891229856197</v>
+        <v>0.8284048749521276</v>
       </c>
       <c r="I11">
-        <v>0.4663825756073763</v>
+        <v>0.7741817708115661</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2423128529522529</v>
+        <v>0.2805491775460212</v>
       </c>
       <c r="M11">
-        <v>0.7253390987129862</v>
+        <v>0.3284030203531927</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.5728627008275</v>
+        <v>1.624890322857368</v>
       </c>
       <c r="C12">
-        <v>1.039066470692433</v>
+        <v>0.4165798299752055</v>
       </c>
       <c r="D12">
-        <v>0.03354637141899985</v>
+        <v>0.02970787893985261</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.213245390507097</v>
+        <v>0.9815845481800096</v>
       </c>
       <c r="G12">
-        <v>1.103514012807466</v>
+        <v>0.8281076481745799</v>
       </c>
       <c r="H12">
-        <v>0.6062563316340288</v>
+        <v>0.8286723028431311</v>
       </c>
       <c r="I12">
-        <v>0.471418857601364</v>
+        <v>0.7730217057961326</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2470354378251045</v>
+        <v>0.2812665877313236</v>
       </c>
       <c r="M12">
-        <v>0.7444474021037379</v>
+        <v>0.3334989317078296</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.547542282920801</v>
+        <v>1.617695347062352</v>
       </c>
       <c r="C13">
-        <v>1.034064243502257</v>
+        <v>0.4150426708778525</v>
       </c>
       <c r="D13">
-        <v>0.03347626884872312</v>
+        <v>0.02968040551041184</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.207322142637921</v>
+        <v>0.9807098461041051</v>
       </c>
       <c r="G13">
-        <v>1.097953169093131</v>
+        <v>0.8273157510857629</v>
       </c>
       <c r="H13">
-        <v>0.6041590763100828</v>
+        <v>0.8286109695544894</v>
       </c>
       <c r="I13">
-        <v>0.4703174003713073</v>
+        <v>0.7732674480412669</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2460148224541996</v>
+        <v>0.2811111082373401</v>
       </c>
       <c r="M13">
-        <v>0.7403265989324623</v>
+        <v>0.332400855114777</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.465067370136694</v>
+        <v>1.594234157760241</v>
       </c>
       <c r="C14">
-        <v>1.017767785264056</v>
+        <v>0.4100268367847661</v>
       </c>
       <c r="D14">
-        <v>0.03324833741359257</v>
+        <v>0.02959087309102415</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.188113212934752</v>
+        <v>0.9778774801956018</v>
       </c>
       <c r="G14">
-        <v>1.07993144532324</v>
+        <v>0.8247526366146758</v>
       </c>
       <c r="H14">
-        <v>0.5973776291100705</v>
+        <v>0.8284251924328316</v>
       </c>
       <c r="I14">
-        <v>0.4667893944108386</v>
+        <v>0.7740844852936704</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2426998071937874</v>
+        <v>0.2806077611410132</v>
       </c>
       <c r="M14">
-        <v>0.7269087031283519</v>
+        <v>0.3288220020949097</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.414624571499417</v>
+        <v>1.579865971847653</v>
       </c>
       <c r="C15">
-        <v>1.007798358242269</v>
+        <v>0.4069523256193577</v>
       </c>
       <c r="D15">
-        <v>0.03310924172129859</v>
+        <v>0.02953608159054255</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.176428948020813</v>
+        <v>0.9761581055015256</v>
       </c>
       <c r="G15">
-        <v>1.068978388081291</v>
+        <v>0.8231975732174845</v>
       </c>
       <c r="H15">
-        <v>0.5932678575011607</v>
+        <v>0.8283223389146883</v>
       </c>
       <c r="I15">
-        <v>0.4646769737459664</v>
+        <v>0.7745969381185489</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2406794435022306</v>
+        <v>0.2803022937586093</v>
       </c>
       <c r="M15">
-        <v>0.7187056224168913</v>
+        <v>0.3266315544101488</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.126644092268691</v>
+        <v>1.49756632347777</v>
       </c>
       <c r="C16">
-        <v>0.9508468182857541</v>
+        <v>0.3893004077456794</v>
       </c>
       <c r="D16">
-        <v>0.03231969546201441</v>
+        <v>0.02922286381108208</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.110672702034307</v>
+        <v>0.9665426158470751</v>
       </c>
       <c r="G16">
-        <v>1.007470501220396</v>
+        <v>0.814514159752548</v>
       </c>
       <c r="H16">
-        <v>0.5703664508173318</v>
+        <v>0.8279004037233335</v>
       </c>
       <c r="I16">
-        <v>0.4532896912841053</v>
+        <v>0.7777171214461447</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2292517911741498</v>
+        <v>0.2785954246339912</v>
       </c>
       <c r="M16">
-        <v>0.6719258123816232</v>
+        <v>0.314105184111817</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.950873815480975</v>
+        <v>1.447113443240482</v>
       </c>
       <c r="C17">
-        <v>0.9160538571208861</v>
+        <v>0.3784420593496236</v>
       </c>
       <c r="D17">
-        <v>0.03184166300564684</v>
+        <v>0.02903141142709487</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.071351373346516</v>
+        <v>0.9608552528917045</v>
       </c>
       <c r="G17">
-        <v>0.970803746129846</v>
+        <v>0.8093899541829472</v>
       </c>
       <c r="H17">
-        <v>0.5568706684767761</v>
+        <v>0.8277907758926233</v>
       </c>
       <c r="I17">
-        <v>0.4469169227604155</v>
+        <v>0.7797946762947134</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2223692744882015</v>
+        <v>0.2775872578550889</v>
       </c>
       <c r="M17">
-        <v>0.6434184136921459</v>
+        <v>0.3064441448860293</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.850076791355718</v>
+        <v>1.418107580782191</v>
       </c>
       <c r="C18">
-        <v>0.8960894367800734</v>
+        <v>0.3721858352634797</v>
       </c>
       <c r="D18">
-        <v>0.03156888141441527</v>
+        <v>0.0289215528249791</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.049088178435824</v>
+        <v>0.957661516021048</v>
       </c>
       <c r="G18">
-        <v>0.9500838247584085</v>
+        <v>0.8065168988478035</v>
       </c>
       <c r="H18">
-        <v>0.5493015078277921</v>
+        <v>0.8277824672665162</v>
       </c>
       <c r="I18">
-        <v>0.4434660807820023</v>
+        <v>0.7810495545099414</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2184553345238385</v>
+        <v>0.2770216983491736</v>
       </c>
       <c r="M18">
-        <v>0.6270865180458571</v>
+        <v>0.3020463895587895</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.815997848134316</v>
+        <v>1.408289010056251</v>
       </c>
       <c r="C19">
-        <v>0.8893374764903115</v>
+        <v>0.3700657360736841</v>
       </c>
       <c r="D19">
-        <v>0.03147688089655531</v>
+        <v>0.02888440156326411</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.041609041028522</v>
+        <v>0.9565934590983574</v>
       </c>
       <c r="G19">
-        <v>0.9431299141952678</v>
+        <v>0.8055568588110731</v>
       </c>
       <c r="H19">
-        <v>0.5467709827986624</v>
+        <v>0.8277890483463182</v>
       </c>
       <c r="I19">
-        <v>0.4423335675791975</v>
+        <v>0.7814847139543986</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2171376054252363</v>
+        <v>0.2768326676356878</v>
       </c>
       <c r="M19">
-        <v>0.6215674728179224</v>
+        <v>0.3005588785550231</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.969553052905781</v>
+        <v>1.452482869504536</v>
       </c>
       <c r="C20">
-        <v>0.919752578794629</v>
+        <v>0.3795990666421005</v>
       </c>
       <c r="D20">
-        <v>0.03189232240018214</v>
+        <v>0.02905176506143192</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.075500165800605</v>
+        <v>0.9614526582366238</v>
       </c>
       <c r="G20">
-        <v>0.9746682247661624</v>
+        <v>0.8099277436672168</v>
       </c>
       <c r="H20">
-        <v>0.5582870933059354</v>
+        <v>0.8277967778849131</v>
       </c>
       <c r="I20">
-        <v>0.4475728697963888</v>
+        <v>0.7795673121405571</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2230972524264558</v>
+        <v>0.2776930977643133</v>
       </c>
       <c r="M20">
-        <v>0.6464462534594944</v>
+        <v>0.3072587790388042</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.489276353040339</v>
+        <v>1.601124764837039</v>
       </c>
       <c r="C21">
-        <v>1.02255178422962</v>
+        <v>0.411500560861441</v>
       </c>
       <c r="D21">
-        <v>0.03331517728324229</v>
+        <v>0.02961716059730435</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.193738176509427</v>
+        <v>0.9787061768340948</v>
       </c>
       <c r="G21">
-        <v>1.085206853874581</v>
+        <v>0.8255023750132722</v>
       </c>
       <c r="H21">
-        <v>0.5993602604700357</v>
+        <v>0.8284774792201404</v>
       </c>
       <c r="I21">
-        <v>0.4678154653770861</v>
+        <v>0.7738420013812828</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.243671372147432</v>
+        <v>0.2807550130214054</v>
       </c>
       <c r="M21">
-        <v>0.7308465466973288</v>
+        <v>0.3298728432770233</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.832246369866937</v>
+        <v>1.698382273713378</v>
       </c>
       <c r="C22">
-        <v>1.090286376527899</v>
+        <v>0.4322531066660531</v>
       </c>
       <c r="D22">
-        <v>0.03426788955504634</v>
+        <v>0.02998891342439691</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.274616094074901</v>
+        <v>0.9906769093553009</v>
       </c>
       <c r="G22">
-        <v>1.161228584296936</v>
+        <v>0.8363482711009169</v>
       </c>
       <c r="H22">
-        <v>0.6281481649751584</v>
+        <v>0.8294117784276978</v>
       </c>
       <c r="I22">
-        <v>0.4831905025145034</v>
+        <v>0.7706366388093286</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2575669486378445</v>
+        <v>0.2828835883161105</v>
       </c>
       <c r="M22">
-        <v>0.7866984868208036</v>
+        <v>0.3447287813912396</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.64886312132478</v>
+        <v>1.646464249157304</v>
       </c>
       <c r="C23">
-        <v>1.054078402762286</v>
+        <v>0.4211859913557703</v>
       </c>
       <c r="D23">
-        <v>0.03375714151143683</v>
+        <v>0.0297903012570444</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.231097017830706</v>
+        <v>0.9842241302282702</v>
       </c>
       <c r="G23">
-        <v>1.120283734978983</v>
+        <v>0.8304983048862198</v>
       </c>
       <c r="H23">
-        <v>0.6125941579161349</v>
+        <v>0.8288682505766189</v>
       </c>
       <c r="I23">
-        <v>0.4747762394413186</v>
+        <v>0.772298177269505</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2501069009214376</v>
+        <v>0.2817358672782291</v>
       </c>
       <c r="M23">
-        <v>0.7568201196113264</v>
+        <v>0.3367929446699947</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.961107379979296</v>
+        <v>1.450055351287631</v>
       </c>
       <c r="C24">
-        <v>0.9180802680988336</v>
+        <v>0.3790760260511945</v>
       </c>
       <c r="D24">
-        <v>0.03186941295301793</v>
+        <v>0.02904256252826443</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.073623432743247</v>
+        <v>0.9611823345787798</v>
       </c>
       <c r="G24">
-        <v>0.9729199769628849</v>
+        <v>0.8096843819651838</v>
       </c>
       <c r="H24">
-        <v>0.557646139020008</v>
+        <v>0.8277938939543219</v>
       </c>
       <c r="I24">
-        <v>0.4472756553675126</v>
+        <v>0.7796699151563899</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2227680004925219</v>
+        <v>0.2776452037812192</v>
       </c>
       <c r="M24">
-        <v>0.6450771895762557</v>
+        <v>0.3068904621278676</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.230483077058921</v>
+        <v>1.238708571902293</v>
       </c>
       <c r="C25">
-        <v>0.7731445817247788</v>
+        <v>0.333241489862786</v>
       </c>
       <c r="D25">
-        <v>0.02991467985383878</v>
+        <v>0.02824598346405693</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9170587602945517</v>
+        <v>0.9392875237934106</v>
       </c>
       <c r="G25">
-        <v>0.8278753634176041</v>
+        <v>0.7900684399191107</v>
       </c>
       <c r="H25">
-        <v>0.5056594871906128</v>
+        <v>0.8287269195203208</v>
       </c>
       <c r="I25">
-        <v>0.425706220243157</v>
+        <v>0.7899108261848795</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1949631270314498</v>
+        <v>0.2737798922775809</v>
       </c>
       <c r="M25">
-        <v>0.5269678348749096</v>
+        <v>0.2749677563406365</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_244/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_244/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.083535801138282</v>
+        <v>2.699176518559227</v>
       </c>
       <c r="C2">
-        <v>0.2991360873785709</v>
+        <v>0.6673355385473769</v>
       </c>
       <c r="D2">
-        <v>0.02766834803760077</v>
+        <v>0.02852982788260405</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9256811883042673</v>
+        <v>0.8110501554072158</v>
       </c>
       <c r="G2">
-        <v>0.7780272031377962</v>
+        <v>0.7307446946777389</v>
       </c>
       <c r="H2">
-        <v>0.8312015576536709</v>
+        <v>0.4725905258348462</v>
       </c>
       <c r="I2">
-        <v>0.7994050612249666</v>
+        <v>0.4156814885146289</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.27140343584108</v>
+        <v>0.175692484807449</v>
       </c>
       <c r="M2">
-        <v>0.2517476747808516</v>
+        <v>0.4415318878456063</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9786524220576212</v>
+        <v>2.341930446911988</v>
       </c>
       <c r="C3">
-        <v>0.2757984692949265</v>
+        <v>0.5959285272966497</v>
       </c>
       <c r="D3">
-        <v>0.02728259605396843</v>
+        <v>0.02761876907368688</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9180137608706929</v>
+        <v>0.7440317265231613</v>
       </c>
       <c r="G3">
-        <v>0.7713470043885309</v>
+        <v>0.6699320859895153</v>
       </c>
       <c r="H3">
-        <v>0.8339881759197567</v>
+        <v>0.4529625403637425</v>
       </c>
       <c r="I3">
-        <v>0.8070507183222588</v>
+        <v>0.4120521667094152</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2700854042169496</v>
+        <v>0.1632726021277975</v>
       </c>
       <c r="M3">
-        <v>0.2361886505213775</v>
+        <v>0.3843385931669658</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9143940898700862</v>
+        <v>2.123583754801302</v>
       </c>
       <c r="C4">
-        <v>0.2613585856882992</v>
+        <v>0.5521551302605872</v>
       </c>
       <c r="D4">
-        <v>0.02704863232600374</v>
+        <v>0.02707112033110093</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9140676193005959</v>
+        <v>0.7049755788093393</v>
       </c>
       <c r="G4">
-        <v>0.7679697337431008</v>
+        <v>0.6347625333349356</v>
       </c>
       <c r="H4">
-        <v>0.8362446933044367</v>
+        <v>0.442144463471962</v>
       </c>
       <c r="I4">
-        <v>0.8123402092025742</v>
+        <v>0.4112380998194212</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2694203457237094</v>
+        <v>0.1559295312821334</v>
       </c>
       <c r="M4">
-        <v>0.22672315716882</v>
+        <v>0.3494979722194813</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8882446368543242</v>
+        <v>2.034805922588362</v>
       </c>
       <c r="C5">
-        <v>0.2554465471264109</v>
+        <v>0.5343245655418229</v>
       </c>
       <c r="D5">
-        <v>0.02695402986009654</v>
+        <v>0.02685066926347801</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9126504674355758</v>
+        <v>0.6895468408629597</v>
       </c>
       <c r="G5">
-        <v>0.7667748563823267</v>
+        <v>0.6209343884851108</v>
       </c>
       <c r="H5">
-        <v>0.8373011880083538</v>
+        <v>0.4380269943236215</v>
       </c>
       <c r="I5">
-        <v>0.8146449868697125</v>
+        <v>0.4112416819934026</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2691856033814801</v>
+        <v>0.1530037607859924</v>
       </c>
       <c r="M5">
-        <v>0.2228881035842889</v>
+        <v>0.3353598162867257</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8839047651313194</v>
+        <v>2.020075067188202</v>
       </c>
       <c r="C6">
-        <v>0.2544631899856995</v>
+        <v>0.5313639756662667</v>
       </c>
       <c r="D6">
-        <v>0.02693836625592638</v>
+        <v>0.02681422151842838</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9124266647596428</v>
+        <v>0.6870132144954511</v>
       </c>
       <c r="G6">
-        <v>0.7665873807962953</v>
+        <v>0.6186674858402483</v>
       </c>
       <c r="H6">
-        <v>0.8374848825872476</v>
+        <v>0.4373603275569877</v>
       </c>
       <c r="I6">
-        <v>0.8150366983545716</v>
+        <v>0.4112619584074224</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2691488157739457</v>
+        <v>0.1525218337702512</v>
       </c>
       <c r="M6">
-        <v>0.2222526413234505</v>
+        <v>0.3330155169160918</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9140412807092844</v>
+        <v>2.122385721589069</v>
       </c>
       <c r="C7">
-        <v>0.2612789657387964</v>
+        <v>0.5519146439960139</v>
       </c>
       <c r="D7">
-        <v>0.02704735347248644</v>
+        <v>0.02706813652548234</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9140477348147797</v>
+        <v>0.704765580140851</v>
       </c>
       <c r="G7">
-        <v>0.7679528857981666</v>
+        <v>0.6345740559406892</v>
       </c>
       <c r="H7">
-        <v>0.836258387384234</v>
+        <v>0.4420877801682366</v>
       </c>
       <c r="I7">
-        <v>0.8123706883411437</v>
+        <v>0.4112368163907334</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2694170330193089</v>
+        <v>0.155889809469592</v>
       </c>
       <c r="M7">
-        <v>0.22667134618424</v>
+        <v>0.3493070709323405</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.047343423019413</v>
+        <v>2.575757046741501</v>
       </c>
       <c r="C8">
-        <v>0.2911122708147218</v>
+        <v>0.6426932148011417</v>
       </c>
       <c r="D8">
-        <v>0.0275347486047508</v>
+        <v>0.02821310796763399</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9228790043205919</v>
+        <v>0.7874831670985714</v>
       </c>
       <c r="G8">
-        <v>0.7755730553871132</v>
+        <v>0.7093001715007858</v>
       </c>
       <c r="H8">
-        <v>0.8320490199914872</v>
+        <v>0.4655548146636335</v>
       </c>
       <c r="I8">
-        <v>0.8019175710568689</v>
+        <v>0.4141239176763065</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2709190504914645</v>
+        <v>0.1713486070355188</v>
       </c>
       <c r="M8">
-        <v>0.2463647708374879</v>
+        <v>0.4217481744210616</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.309832892266229</v>
+        <v>3.475373734725736</v>
       </c>
       <c r="C9">
-        <v>0.3487363214255481</v>
+        <v>0.8217877127111421</v>
       </c>
       <c r="D9">
-        <v>0.02851295455731062</v>
+        <v>0.03056372929782114</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9462701819887229</v>
+        <v>0.968221913173025</v>
       </c>
       <c r="G9">
-        <v>0.7963005787861306</v>
+        <v>0.8750882042864134</v>
       </c>
       <c r="H9">
-        <v>0.8281341804122349</v>
+        <v>0.5222959268622276</v>
       </c>
       <c r="I9">
-        <v>0.7861566395756441</v>
+        <v>0.4319927107144821</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2750089300318379</v>
+        <v>0.2041269833107222</v>
       </c>
       <c r="M9">
-        <v>0.2856767554272679</v>
+        <v>0.5664809712000363</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.503325126266816</v>
+        <v>4.146743542919978</v>
       </c>
       <c r="C10">
-        <v>0.3905379559373898</v>
+        <v>0.9548237895368459</v>
       </c>
       <c r="D10">
-        <v>0.02924474478306038</v>
+        <v>0.03237454737661949</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9672020984542939</v>
+        <v>1.115208902998759</v>
       </c>
       <c r="G10">
-        <v>0.815108948342413</v>
+        <v>1.011706118439008</v>
       </c>
       <c r="H10">
-        <v>0.8279203378458959</v>
+        <v>0.5719333241472384</v>
       </c>
       <c r="I10">
-        <v>0.7774881875287676</v>
+        <v>0.4540467083899529</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2787124026937846</v>
+        <v>0.2300433577601098</v>
       </c>
       <c r="M10">
-        <v>0.3149805340152767</v>
+        <v>0.6751878574336274</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.591486373694579</v>
+        <v>4.455416745979164</v>
       </c>
       <c r="C11">
-        <v>0.4094390246575585</v>
+        <v>1.01586058897837</v>
       </c>
       <c r="D11">
-        <v>0.02958039232466092</v>
+        <v>0.03322170762137588</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9775477623253579</v>
+        <v>1.185874018044302</v>
       </c>
       <c r="G11">
-        <v>0.8244543765600696</v>
+        <v>1.077831844734135</v>
       </c>
       <c r="H11">
-        <v>0.8284048749521276</v>
+        <v>0.5965891229856197</v>
       </c>
       <c r="I11">
-        <v>0.7741817708115661</v>
+        <v>0.4663825756073905</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2805491775460212</v>
+        <v>0.2423128529522529</v>
       </c>
       <c r="M11">
-        <v>0.3284030203531927</v>
+        <v>0.725339098712972</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.624890322857368</v>
+        <v>4.57286270082767</v>
       </c>
       <c r="C12">
-        <v>0.4165798299752055</v>
+        <v>1.039066470692433</v>
       </c>
       <c r="D12">
-        <v>0.02970787893985261</v>
+        <v>0.03354637141904959</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9815845481800096</v>
+        <v>1.213245390507097</v>
       </c>
       <c r="G12">
-        <v>0.8281076481745799</v>
+        <v>1.103514012807409</v>
       </c>
       <c r="H12">
-        <v>0.8286723028431311</v>
+        <v>0.6062563316340288</v>
       </c>
       <c r="I12">
-        <v>0.7730217057961326</v>
+        <v>0.471418857601364</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2812665877313236</v>
+        <v>0.2470354378251614</v>
       </c>
       <c r="M12">
-        <v>0.3334989317078296</v>
+        <v>0.7444474021037308</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.617695347062352</v>
+        <v>4.547542282920858</v>
       </c>
       <c r="C13">
-        <v>0.4150426708778525</v>
+        <v>1.034064243502257</v>
       </c>
       <c r="D13">
-        <v>0.02968040551041184</v>
+        <v>0.03347626884871602</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9807098461041051</v>
+        <v>1.207322142637921</v>
       </c>
       <c r="G13">
-        <v>0.8273157510857629</v>
+        <v>1.097953169093046</v>
       </c>
       <c r="H13">
-        <v>0.8286109695544894</v>
+        <v>0.6041590763100828</v>
       </c>
       <c r="I13">
-        <v>0.7732674480412669</v>
+        <v>0.4703174003713073</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2811111082373401</v>
+        <v>0.2460148224541285</v>
       </c>
       <c r="M13">
-        <v>0.332400855114777</v>
+        <v>0.7403265989324339</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.594234157760241</v>
+        <v>4.465067370136751</v>
       </c>
       <c r="C14">
-        <v>0.4100268367847661</v>
+        <v>1.0177677852638</v>
       </c>
       <c r="D14">
-        <v>0.02959087309102415</v>
+        <v>0.03324833741351441</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9778774801956018</v>
+        <v>1.188113212934766</v>
       </c>
       <c r="G14">
-        <v>0.8247526366146758</v>
+        <v>1.079931445323268</v>
       </c>
       <c r="H14">
-        <v>0.8284251924328316</v>
+        <v>0.5973776291101842</v>
       </c>
       <c r="I14">
-        <v>0.7740844852936704</v>
+        <v>0.4667893944108457</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2806077611410132</v>
+        <v>0.2426998071937021</v>
       </c>
       <c r="M14">
-        <v>0.3288220020949097</v>
+        <v>0.7269087031283519</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.579865971847653</v>
+        <v>4.41462457149936</v>
       </c>
       <c r="C15">
-        <v>0.4069523256193577</v>
+        <v>1.007798358242354</v>
       </c>
       <c r="D15">
-        <v>0.02953608159054255</v>
+        <v>0.03310924172140162</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9761581055015256</v>
+        <v>1.176428948020842</v>
       </c>
       <c r="G15">
-        <v>0.8231975732174845</v>
+        <v>1.068978388081291</v>
       </c>
       <c r="H15">
-        <v>0.8283223389146883</v>
+        <v>0.5932678575011607</v>
       </c>
       <c r="I15">
-        <v>0.7745969381185489</v>
+        <v>0.4646769737459593</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2803022937586093</v>
+        <v>0.2406794435021737</v>
       </c>
       <c r="M15">
-        <v>0.3266315544101488</v>
+        <v>0.7187056224168913</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.49756632347777</v>
+        <v>4.126644092268691</v>
       </c>
       <c r="C16">
-        <v>0.3893004077456794</v>
+        <v>0.9508468182857541</v>
       </c>
       <c r="D16">
-        <v>0.02922286381108208</v>
+        <v>0.03231969546208546</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9665426158470751</v>
+        <v>1.110672702034307</v>
       </c>
       <c r="G16">
-        <v>0.814514159752548</v>
+        <v>1.007470501220382</v>
       </c>
       <c r="H16">
-        <v>0.8279004037233335</v>
+        <v>0.5703664508173318</v>
       </c>
       <c r="I16">
-        <v>0.7777171214461447</v>
+        <v>0.4532896912841409</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2785954246339912</v>
+        <v>0.2292517911741783</v>
       </c>
       <c r="M16">
-        <v>0.314105184111817</v>
+        <v>0.6719258123816019</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.447113443240482</v>
+        <v>3.950873815481089</v>
       </c>
       <c r="C17">
-        <v>0.3784420593496236</v>
+        <v>0.9160538571209713</v>
       </c>
       <c r="D17">
-        <v>0.02903141142709487</v>
+        <v>0.03184166300585645</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9608552528917045</v>
+        <v>1.071351373346516</v>
       </c>
       <c r="G17">
-        <v>0.8093899541829472</v>
+        <v>0.970803746129846</v>
       </c>
       <c r="H17">
-        <v>0.8277907758926233</v>
+        <v>0.5568706684768898</v>
       </c>
       <c r="I17">
-        <v>0.7797946762947134</v>
+        <v>0.4469169227604155</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2775872578550889</v>
+        <v>0.2223692744880168</v>
       </c>
       <c r="M17">
-        <v>0.3064441448860293</v>
+        <v>0.6434184136921388</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.418107580782191</v>
+        <v>3.850076791355718</v>
       </c>
       <c r="C18">
-        <v>0.3721858352634797</v>
+        <v>0.8960894367800734</v>
       </c>
       <c r="D18">
-        <v>0.0289215528249791</v>
+        <v>0.03156888141441527</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.957661516021048</v>
+        <v>1.049088178435824</v>
       </c>
       <c r="G18">
-        <v>0.8065168988478035</v>
+        <v>0.9500838247584369</v>
       </c>
       <c r="H18">
-        <v>0.8277824672665162</v>
+        <v>0.5493015078277921</v>
       </c>
       <c r="I18">
-        <v>0.7810495545099414</v>
+        <v>0.4434660807820023</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2770216983491736</v>
+        <v>0.2184553345238811</v>
       </c>
       <c r="M18">
-        <v>0.3020463895587895</v>
+        <v>0.6270865180458713</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.408289010056251</v>
+        <v>3.815997848134487</v>
       </c>
       <c r="C19">
-        <v>0.3700657360736841</v>
+        <v>0.8893374764898851</v>
       </c>
       <c r="D19">
-        <v>0.02888440156326411</v>
+        <v>0.03147688089655176</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9565934590983574</v>
+        <v>1.041609041028522</v>
       </c>
       <c r="G19">
-        <v>0.8055568588110731</v>
+        <v>0.9431299141952678</v>
       </c>
       <c r="H19">
-        <v>0.8277890483463182</v>
+        <v>0.5467709827987761</v>
       </c>
       <c r="I19">
-        <v>0.7814847139543986</v>
+        <v>0.4423335675792046</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2768326676356878</v>
+        <v>0.2171376054252079</v>
       </c>
       <c r="M19">
-        <v>0.3005588785550231</v>
+        <v>0.6215674728179081</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.452482869504536</v>
+        <v>3.969553052905951</v>
       </c>
       <c r="C20">
-        <v>0.3795990666421005</v>
+        <v>0.9197525787948848</v>
       </c>
       <c r="D20">
-        <v>0.02905176506143192</v>
+        <v>0.03189232240028517</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9614526582366238</v>
+        <v>1.075500165800605</v>
       </c>
       <c r="G20">
-        <v>0.8099277436672168</v>
+        <v>0.9746682247662051</v>
       </c>
       <c r="H20">
-        <v>0.8277967778849131</v>
+        <v>0.5582870933059496</v>
       </c>
       <c r="I20">
-        <v>0.7795673121405571</v>
+        <v>0.4475728697963817</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2776930977643133</v>
+        <v>0.2230972524265269</v>
       </c>
       <c r="M20">
-        <v>0.3072587790388042</v>
+        <v>0.646446253459473</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.601124764837039</v>
+        <v>4.489276353040395</v>
       </c>
       <c r="C21">
-        <v>0.411500560861441</v>
+        <v>1.022551784229591</v>
       </c>
       <c r="D21">
-        <v>0.02961716059730435</v>
+        <v>0.03331517728308597</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9787061768340948</v>
+        <v>1.193738176509427</v>
       </c>
       <c r="G21">
-        <v>0.8255023750132722</v>
+        <v>1.085206853874553</v>
       </c>
       <c r="H21">
-        <v>0.8284774792201404</v>
+        <v>0.5993602604700641</v>
       </c>
       <c r="I21">
-        <v>0.7738420013812828</v>
+        <v>0.4678154653770861</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2807550130214054</v>
+        <v>0.2436713721472898</v>
       </c>
       <c r="M21">
-        <v>0.3298728432770233</v>
+        <v>0.7308465466973288</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.698382273713378</v>
+        <v>4.832246369866652</v>
       </c>
       <c r="C22">
-        <v>0.4322531066660531</v>
+        <v>1.090286376527899</v>
       </c>
       <c r="D22">
-        <v>0.02998891342439691</v>
+        <v>0.03426788955490423</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9906769093553009</v>
+        <v>1.274616094074901</v>
       </c>
       <c r="G22">
-        <v>0.8363482711009169</v>
+        <v>1.16122858429685</v>
       </c>
       <c r="H22">
-        <v>0.8294117784276978</v>
+        <v>0.6281481649751299</v>
       </c>
       <c r="I22">
-        <v>0.7706366388093286</v>
+        <v>0.4831905025145176</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2828835883161105</v>
+        <v>0.2575669486378729</v>
       </c>
       <c r="M22">
-        <v>0.3447287813912396</v>
+        <v>0.7866984868207965</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.646464249157304</v>
+        <v>4.64886312132495</v>
       </c>
       <c r="C23">
-        <v>0.4211859913557703</v>
+        <v>1.054078402762428</v>
       </c>
       <c r="D23">
-        <v>0.0297903012570444</v>
+        <v>0.0337571415114013</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9842241302282702</v>
+        <v>1.23109701783072</v>
       </c>
       <c r="G23">
-        <v>0.8304983048862198</v>
+        <v>1.120283734978983</v>
       </c>
       <c r="H23">
-        <v>0.8288682505766189</v>
+        <v>0.6125941579160212</v>
       </c>
       <c r="I23">
-        <v>0.772298177269505</v>
+        <v>0.4747762394413186</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2817358672782291</v>
+        <v>0.250106900921395</v>
       </c>
       <c r="M23">
-        <v>0.3367929446699947</v>
+        <v>0.7568201196113264</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.450055351287631</v>
+        <v>3.961107379979126</v>
       </c>
       <c r="C24">
-        <v>0.3790760260511945</v>
+        <v>0.9180802680985778</v>
       </c>
       <c r="D24">
-        <v>0.02904256252826443</v>
+        <v>0.0318694129531174</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9611823345787798</v>
+        <v>1.073623432743233</v>
       </c>
       <c r="G24">
-        <v>0.8096843819651838</v>
+        <v>0.9729199769628849</v>
       </c>
       <c r="H24">
-        <v>0.8277938939543219</v>
+        <v>0.5576461390201359</v>
       </c>
       <c r="I24">
-        <v>0.7796699151563899</v>
+        <v>0.447275655367541</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2776452037812192</v>
+        <v>0.2227680004924935</v>
       </c>
       <c r="M24">
-        <v>0.3068904621278676</v>
+        <v>0.6450771895762415</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.238708571902293</v>
+        <v>3.230483077059091</v>
       </c>
       <c r="C25">
-        <v>0.333241489862786</v>
+        <v>0.7731445817247788</v>
       </c>
       <c r="D25">
-        <v>0.02824598346405693</v>
+        <v>0.02991467985383167</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9392875237934106</v>
+        <v>0.9170587602945801</v>
       </c>
       <c r="G25">
-        <v>0.7900684399191107</v>
+        <v>0.8278753634176752</v>
       </c>
       <c r="H25">
-        <v>0.8287269195203208</v>
+        <v>0.5056594871906128</v>
       </c>
       <c r="I25">
-        <v>0.7899108261848795</v>
+        <v>0.4257062202431641</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2737798922775809</v>
+        <v>0.1949631270315564</v>
       </c>
       <c r="M25">
-        <v>0.2749677563406365</v>
+        <v>0.5269678348749025</v>
       </c>
       <c r="N25">
         <v>0</v>
